--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43502</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43605</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43745</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44146</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43780</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44818</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44882</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>44957</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45082</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43368</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>43377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>43377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>43377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43403</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43406</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43426</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43426</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43467</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43473</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43485</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43580</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43587</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43600</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43600</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43649</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43665</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43665</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43678</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43686</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43689</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>43696</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43721</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43721</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>43726</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43726</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43732</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43745</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43745</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>43745</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>43746</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>43747</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>43752</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43767</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43767</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43769</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43832</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43859</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43865</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43882</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43892</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>43892</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43895</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43921</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43927</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43930</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43930</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43949</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43949</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43951</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43957</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43958</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43962</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43977</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43991</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43991</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43998</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44032</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>44047</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44064</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44064</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44064</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44064</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>44064</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44064</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44064</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44064</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44067</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44067</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>44069</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44070</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44077</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>44083</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>44085</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>44089</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>44098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>44098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>44098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>44102</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>44102</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44106</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44106</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>44106</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44106</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44108</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44110</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44145</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44146</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44146</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>44147</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44153</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>44160</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>44161</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>44174</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44174</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44181</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44221</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>44238</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44256</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44260</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44260</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44260</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44264</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44266</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44271</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44273</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>44308</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>44314</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44314</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44314</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>44314</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44314</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44323</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44348</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>44348</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         <v>44351</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>44383</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44386</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44393</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44411</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44442</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44442</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>44462</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44477</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44487</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44515</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44523</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44543</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44610</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44613</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44613</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44616</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         <v>44616</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>44645</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>44662</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44686</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44692</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>44699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44721</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44722</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44722</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>44748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>44749</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44750</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44754</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44754</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44760</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44782</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44782</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>44782</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44792</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>44792</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44795</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44798</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44806</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         <v>44811</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>44811</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>44812</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>44817</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>44819</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>44823</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>44823</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44825</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>44830</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>44839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44839</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>44858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44861</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44867</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>44874</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44876</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44876</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44886</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44887</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44894</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44896</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44907</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44909</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44930</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44942</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44959</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44965</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44979</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44979</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44981</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>44981</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44981</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44981</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44981</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44981</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44987</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>45000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>45000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>45000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>45000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>45000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45005</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>45009</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45009</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         <v>45019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19310,7 +19310,7 @@
         <v>45019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>45022</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>45027</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>45027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>45037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>45037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>45044</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>45048</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45051</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45055</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>45057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>45057</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>45057</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>45058</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>45058</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>45068</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>45071</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>45082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>45082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>45083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>45089</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45091</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45147</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>45162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>45162</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45162</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>45166</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>45166</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>45168</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
         <v>45168</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>45169</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y338"/>
+  <dimension ref="A1:Y339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43502</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43605</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43745</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44146</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43780</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44818</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44882</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>44957</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45082</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43368</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>43377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>43377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>43377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43403</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43406</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43426</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43426</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43467</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43473</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43485</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43580</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43587</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43600</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43600</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43649</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43665</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43665</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43678</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43686</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43689</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>43696</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43721</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43721</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>43726</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43726</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43732</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43745</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43745</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>43745</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>43746</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>43747</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>43752</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43767</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43767</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43769</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43832</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43859</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43865</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43882</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43892</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>43892</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43895</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43921</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43927</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43930</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43930</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43949</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43949</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43951</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43957</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43958</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43962</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43977</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43991</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43991</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43998</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44032</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>44047</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44064</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44064</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44064</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44064</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>44064</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44064</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44064</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44064</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44067</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44067</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>44069</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44070</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44077</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>44083</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>44085</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>44089</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>44098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>44098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>44098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>44102</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>44102</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44106</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44106</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>44106</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44106</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44108</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44110</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44145</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44146</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44146</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>44147</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44153</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>44160</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>44161</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>44174</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44174</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44181</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44221</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>44238</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44256</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44260</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44260</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44260</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44264</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44266</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44271</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44273</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>44308</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>44314</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44314</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44314</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>44314</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44314</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44323</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44348</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>44348</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         <v>44351</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>44383</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44386</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44393</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44411</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44442</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44442</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>44462</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44477</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44487</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44515</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44523</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44543</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44610</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44613</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44613</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44616</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         <v>44616</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>44645</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>44662</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44686</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44692</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>44699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44721</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44722</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44722</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>44748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>44749</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44750</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44754</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44754</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44760</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44782</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44782</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>44782</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44792</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>44792</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44795</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44798</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44806</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         <v>44811</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>44811</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>44812</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>44817</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>44819</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>44823</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>44823</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44825</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>44830</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>44839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44839</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>44858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44861</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44867</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>44874</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44876</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44876</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44886</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44887</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44894</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44896</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44907</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44909</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44930</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44942</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44959</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44965</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44979</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44979</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44981</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>44981</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44981</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44981</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44981</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44981</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44987</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>45000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>45000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>45000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>45000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>45000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45005</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>45009</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45009</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         <v>45019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19310,7 +19310,7 @@
         <v>45019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>45022</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>45027</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>45027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>45037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>45037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>45044</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>45048</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45051</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45055</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>45057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>45057</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>45057</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>45058</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>45058</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>45068</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>45071</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>45082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>45082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>45083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>45089</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45091</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45147</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>45162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>45162</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45162</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>45166</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>45166</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>45168</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
         <v>45168</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21368,7 +21368,7 @@
       </c>
       <c r="R337" s="2" t="inlineStr"/>
     </row>
-    <row r="338">
+    <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
           <t>A 40167-2023</t>
@@ -21378,7 +21378,7 @@
         <v>45169</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21429,6 +21429,63 @@
         <v>0</v>
       </c>
       <c r="R338" s="2" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>A 41205-2023</t>
+        </is>
+      </c>
+      <c r="B339" s="1" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C339" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>HÄLLEFORS</t>
+        </is>
+      </c>
+      <c r="G339" t="n">
+        <v>4</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N339" t="n">
+        <v>0</v>
+      </c>
+      <c r="O339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R339" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43502</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43605</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43745</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44146</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43780</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44818</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44882</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>44957</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45082</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43368</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>43377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>43377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>43377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43403</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43406</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43426</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43426</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43467</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43473</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43485</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43580</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43587</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43600</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43600</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43649</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43665</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43665</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43678</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43686</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43689</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>43696</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43721</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43721</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>43726</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43726</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43732</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43745</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43745</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>43745</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>43746</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>43747</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>43752</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43767</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43767</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43769</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43832</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43859</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43865</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43882</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43892</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>43892</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43895</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43921</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43927</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43930</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43930</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43949</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43949</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43951</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43957</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43958</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43962</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43977</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43991</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43991</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43998</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44032</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>44047</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44064</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44064</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44064</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44064</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>44064</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44064</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44064</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44064</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44067</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44067</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>44069</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44070</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44077</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>44083</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>44085</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>44089</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>44098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>44098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>44098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>44102</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>44102</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44106</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44106</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>44106</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44106</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44108</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44110</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44145</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44146</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44146</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>44147</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44153</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>44160</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>44161</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>44174</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44174</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44181</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44221</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>44238</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44256</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44260</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44260</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44260</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44264</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44266</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44271</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44273</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>44308</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>44314</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44314</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44314</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>44314</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44314</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44323</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44348</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>44348</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         <v>44351</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>44383</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44386</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44393</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44411</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44442</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44442</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>44462</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44477</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44487</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44515</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44523</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44543</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44610</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44613</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44613</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44616</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         <v>44616</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>44645</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>44662</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44686</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44692</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>44699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44721</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44722</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44722</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>44748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>44749</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44750</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44754</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44754</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44760</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44782</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44782</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>44782</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44792</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>44792</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44795</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44798</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44806</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         <v>44811</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>44811</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>44812</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>44817</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>44819</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>44823</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>44823</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44825</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>44830</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>44839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44839</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>44858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44861</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44867</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>44874</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44876</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44876</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44886</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44887</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44894</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44896</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44907</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44909</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44930</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44942</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44959</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44965</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44979</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44979</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44981</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>44981</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44981</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44981</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44981</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44981</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44987</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>45000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>45000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>45000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>45000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>45000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45005</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>45009</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45009</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         <v>45019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19310,7 +19310,7 @@
         <v>45019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>45022</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>45027</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>45027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>45037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>45037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>45044</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>45048</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45051</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45055</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>45057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>45057</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>45057</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>45058</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>45058</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>45068</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>45071</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>45082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>45082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>45083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>45089</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45091</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45147</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>45162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>45162</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45162</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>45166</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>45166</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>45168</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
         <v>45168</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>45169</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>45174</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43502</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43605</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43745</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44146</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43780</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44818</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44882</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>44957</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45082</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43368</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>43377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>43377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>43377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43403</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43406</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43426</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43426</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43467</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43473</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43485</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43580</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43587</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43600</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43600</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43649</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43665</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43665</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43678</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43686</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43689</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>43696</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43721</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43721</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>43726</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43726</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43732</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43745</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43745</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>43745</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>43746</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>43747</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>43752</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43767</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43767</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43769</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43832</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43859</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43865</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43882</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43892</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>43892</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43895</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43921</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43927</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43930</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43930</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43949</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43949</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43951</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43957</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43958</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43962</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43977</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43991</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43991</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43998</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44032</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>44047</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44064</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44064</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44064</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44064</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>44064</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44064</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44064</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44064</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44067</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44067</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>44069</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44070</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44077</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>44083</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>44085</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>44089</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>44098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>44098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>44098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>44102</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>44102</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44106</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44106</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>44106</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44106</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44108</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44110</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44145</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44146</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44146</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>44147</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44153</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>44160</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>44161</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>44174</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44174</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44181</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44221</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>44238</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44256</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44260</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44260</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44260</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44264</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44266</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44271</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44273</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>44308</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>44314</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44314</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44314</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>44314</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44314</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44323</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44348</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>44348</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         <v>44351</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>44383</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44386</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44393</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44411</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44442</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44442</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>44462</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44477</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44487</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44515</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44523</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44543</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44610</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44613</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44613</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44616</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         <v>44616</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>44645</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>44662</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44686</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44692</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>44699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44721</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44722</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44722</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>44748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>44749</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44750</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44754</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44754</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44760</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44782</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44782</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>44782</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44792</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>44792</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44795</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44798</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44806</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         <v>44811</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>44811</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>44812</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>44817</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>44819</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>44823</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>44823</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44825</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>44830</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>44839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44839</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>44858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44861</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44867</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>44874</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44876</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44876</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44886</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44887</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44894</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44896</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44907</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44909</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44930</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44942</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44959</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44965</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44979</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44979</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44981</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>44981</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44981</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44981</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44981</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44981</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44987</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>45000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>45000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>45000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>45000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>45000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45005</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>45009</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45009</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         <v>45019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19310,7 +19310,7 @@
         <v>45019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>45022</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>45027</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>45027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>45037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>45037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>45044</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>45048</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45051</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45055</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>45057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>45057</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>45057</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>45058</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>45058</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>45068</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>45071</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>45082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>45082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>45083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>45089</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45091</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45147</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>45162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>45162</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45162</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>45166</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>45166</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>45168</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
         <v>45168</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>45169</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>45174</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43502</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43605</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43745</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44146</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43780</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44818</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44882</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>44957</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45082</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43368</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>43377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>43377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>43377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43403</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43406</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43426</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43426</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43467</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43473</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43485</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43580</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43587</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43600</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43600</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43649</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43665</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43665</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43678</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43686</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43689</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>43696</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43721</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43721</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>43726</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43726</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43732</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43745</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43745</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>43745</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>43746</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>43747</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>43752</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43767</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43767</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43769</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43832</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43859</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43865</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43882</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43892</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>43892</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43895</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43921</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43927</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43930</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43930</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43949</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43949</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43951</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43957</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43958</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43962</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43977</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43991</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43991</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43998</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44032</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>44047</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44064</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44064</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44064</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44064</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>44064</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44064</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44064</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44064</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44067</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44067</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>44069</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44070</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44077</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>44083</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>44085</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>44089</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>44098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>44098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>44098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>44102</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>44102</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44106</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44106</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>44106</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44106</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44108</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44110</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44145</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44146</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44146</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>44147</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44153</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>44160</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>44161</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>44174</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44174</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44181</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44221</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>44238</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44256</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44260</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44260</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44260</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44264</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44266</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44271</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44273</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>44308</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>44314</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44314</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44314</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>44314</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44314</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44323</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44348</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>44348</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         <v>44351</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>44383</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44386</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44393</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44411</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44442</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44442</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>44462</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44477</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44487</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44515</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44523</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44543</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44610</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44613</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44613</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44616</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         <v>44616</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>44645</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>44662</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44686</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44692</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>44699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44721</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44722</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44722</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>44748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>44749</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44750</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44754</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44754</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44760</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44782</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44782</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>44782</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44792</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>44792</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44795</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44798</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44806</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         <v>44811</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>44811</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>44812</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>44817</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>44819</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>44823</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>44823</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44825</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>44830</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>44839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44839</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>44858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44861</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44867</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>44874</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44876</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44876</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44886</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44887</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44894</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44896</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44907</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44909</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44930</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44942</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44959</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44965</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44979</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44979</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44981</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>44981</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44981</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44981</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44981</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44981</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44987</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>45000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>45000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>45000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>45000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>45000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45005</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>45009</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45009</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         <v>45019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19310,7 +19310,7 @@
         <v>45019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>45022</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>45027</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>45027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>45037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>45037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>45044</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>45048</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45051</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45055</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>45057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>45057</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>45057</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>45058</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>45058</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>45068</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>45071</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>45082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>45082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>45083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>45089</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45091</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45147</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>45162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>45162</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45162</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>45166</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>45166</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>45168</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
         <v>45168</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>45169</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>45174</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43502</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43605</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43745</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44146</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43780</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44818</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44882</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>44957</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45082</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43368</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>43377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>43377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>43377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43403</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43406</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43426</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43426</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43467</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43473</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43485</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43580</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43587</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43600</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43600</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43649</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43665</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43665</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43678</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43686</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43689</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>43696</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43721</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43721</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>43726</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43726</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43732</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43745</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43745</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>43745</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>43746</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>43747</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>43752</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43767</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43767</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43769</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43832</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43859</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43865</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43882</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43892</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>43892</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43895</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43921</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43927</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43930</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43930</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43949</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43949</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43951</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43957</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43958</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43962</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43977</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43991</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43991</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43998</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44032</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>44047</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44064</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44064</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44064</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44064</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>44064</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44064</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44064</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44064</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44067</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44067</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>44069</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44070</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44077</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>44083</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>44085</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>44089</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>44098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>44098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>44098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>44102</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>44102</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44106</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44106</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>44106</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44106</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44108</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44110</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44145</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44146</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44146</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>44147</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44153</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>44160</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>44161</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>44174</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44174</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44181</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44221</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>44238</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44256</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44260</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44260</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44260</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44264</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44266</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44271</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44273</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>44308</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>44314</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44314</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44314</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>44314</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44314</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44323</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44348</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>44348</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         <v>44351</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>44383</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44386</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44393</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44411</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44442</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44442</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>44462</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44477</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44487</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44515</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44523</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44543</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44610</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44613</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44613</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44616</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         <v>44616</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>44645</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>44662</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44686</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44692</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>44699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44721</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44722</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44722</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>44748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>44749</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44750</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44754</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44754</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44760</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44782</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44782</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>44782</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44792</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>44792</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44795</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44798</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44806</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         <v>44811</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>44811</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>44812</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>44817</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>44819</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>44823</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>44823</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44825</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>44830</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>44839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44839</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>44858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44861</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44867</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>44874</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44876</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44876</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44886</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44887</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44894</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44896</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44907</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44909</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44930</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44942</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44959</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44965</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44979</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44979</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44981</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>44981</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44981</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44981</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44981</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44981</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44987</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>45000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>45000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>45000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>45000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>45000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45005</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>45009</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45009</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         <v>45019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19310,7 +19310,7 @@
         <v>45019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>45022</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>45027</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>45027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>45037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>45037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>45044</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>45048</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45051</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45055</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>45057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>45057</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>45057</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>45058</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>45058</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>45068</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>45071</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>45082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>45082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>45083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>45089</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45091</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45147</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>45162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>45162</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45162</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>45166</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>45166</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>45168</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
         <v>45168</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>45169</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>45174</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43502</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43605</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43745</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44146</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43780</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44818</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>44882</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44909</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>44957</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         <v>45082</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>43368</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2070,7 +2070,7 @@
         <v>43377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>43377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         <v>43377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         <v>43396</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
         <v>43398</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2365,7 +2365,7 @@
         <v>43403</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         <v>43406</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>43426</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>43426</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>43431</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>43439</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>43445</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>43461</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         <v>43467</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>43473</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         <v>43485</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         <v>43486</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43493</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>43552</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         <v>43580</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43587</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43600</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43600</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43636</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3644,7 +3644,7 @@
         <v>43649</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
         <v>43665</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>43665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43665</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43678</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>43686</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>43689</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>43693</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4110,7 +4110,7 @@
         <v>43696</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         <v>43706</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43712</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43721</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         <v>43721</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         <v>43726</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>43726</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4534,7 +4534,7 @@
         <v>43732</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>43745</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4658,7 +4658,7 @@
         <v>43745</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>43745</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>43746</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>43747</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         <v>43747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>43747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43748</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5149,7 +5149,7 @@
         <v>43752</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43754</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43756</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5459,7 +5459,7 @@
         <v>43767</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43767</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43769</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43770</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43802</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         <v>43818</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         <v>43832</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>43859</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5992,7 +5992,7 @@
         <v>43865</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43882</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         <v>43892</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>43892</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
         <v>43895</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         <v>43921</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>43927</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6488,7 +6488,7 @@
         <v>43930</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>43930</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>43949</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>43949</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>43951</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>43957</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>43958</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>43958</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>43962</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>43977</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>43991</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>43991</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7232,7 +7232,7 @@
         <v>43998</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7356,7 +7356,7 @@
         <v>44032</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>44047</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7475,7 +7475,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44064</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>44064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44064</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>44064</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7785,7 +7785,7 @@
         <v>44064</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>44064</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7909,7 +7909,7 @@
         <v>44064</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>44064</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44064</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>44067</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         <v>44067</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8281,7 +8281,7 @@
         <v>44069</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44070</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8400,7 +8400,7 @@
         <v>44074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44077</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         <v>44083</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>44085</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         <v>44089</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>44098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>44098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>44098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>44102</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>44102</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44106</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9139,7 +9139,7 @@
         <v>44106</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>44106</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>44106</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44108</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44110</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44145</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44146</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>44146</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>44147</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44153</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>44160</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9955,7 +9955,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10012,7 +10012,7 @@
         <v>44161</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10074,7 +10074,7 @@
         <v>44174</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10131,7 +10131,7 @@
         <v>44174</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44181</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44221</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10431,7 +10431,7 @@
         <v>44238</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>44256</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>44260</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>44260</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>44260</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10731,7 +10731,7 @@
         <v>44264</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10788,7 +10788,7 @@
         <v>44266</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10845,7 +10845,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10907,7 +10907,7 @@
         <v>44271</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>44273</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>44308</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>44314</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44314</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>44314</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>44314</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11336,7 +11336,7 @@
         <v>44314</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         <v>44323</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44348</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>44348</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11584,7 +11584,7 @@
         <v>44350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11646,7 +11646,7 @@
         <v>44351</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>44383</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44386</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>44393</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>44411</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44442</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44442</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12132,7 +12132,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12189,7 +12189,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         <v>44462</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12308,7 +12308,7 @@
         <v>44477</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>44487</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>44515</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44523</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12598,7 +12598,7 @@
         <v>44525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12717,7 +12717,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>44543</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>44593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>44610</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
         <v>44613</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44613</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>44616</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         <v>44616</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>44645</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>44662</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>44686</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>44692</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13850,7 +13850,7 @@
         <v>44699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44721</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44722</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44722</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>44748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14212,7 +14212,7 @@
         <v>44749</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14269,7 +14269,7 @@
         <v>44750</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14331,7 +14331,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>44754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44754</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44754</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44760</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44782</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44782</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>44782</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>44792</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15298,7 +15298,7 @@
         <v>44792</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44795</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44798</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15479,7 +15479,7 @@
         <v>44806</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15541,7 +15541,7 @@
         <v>44811</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15598,7 +15598,7 @@
         <v>44811</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>44812</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>44817</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>44819</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
         <v>44823</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>44823</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>44825</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>44830</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>44839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44839</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>44858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>44861</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44867</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>44871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>44872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>44873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17061,7 +17061,7 @@
         <v>44874</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44876</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17185,7 +17185,7 @@
         <v>44876</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         <v>44886</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         <v>44887</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44894</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17428,7 +17428,7 @@
         <v>44896</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17490,7 +17490,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>44907</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>44909</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17671,7 +17671,7 @@
         <v>44923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>44930</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17842,7 +17842,7 @@
         <v>44942</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17899,7 +17899,7 @@
         <v>44958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>44959</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>44965</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>44979</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18142,7 +18142,7 @@
         <v>44979</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18199,7 +18199,7 @@
         <v>44981</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18261,7 +18261,7 @@
         <v>44981</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>44981</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44981</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         <v>44981</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         <v>44981</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18571,7 +18571,7 @@
         <v>44986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18633,7 +18633,7 @@
         <v>44987</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18690,7 +18690,7 @@
         <v>45000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>45000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>45000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18876,7 +18876,7 @@
         <v>45000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18938,7 +18938,7 @@
         <v>45000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45005</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19062,7 +19062,7 @@
         <v>45009</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45009</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         <v>45019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19310,7 +19310,7 @@
         <v>45019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>45022</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>45027</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>45027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19553,7 +19553,7 @@
         <v>45037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>45037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>45037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>45044</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>45048</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19920,7 +19920,7 @@
         <v>45051</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45055</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>45057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20106,7 +20106,7 @@
         <v>45057</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20168,7 +20168,7 @@
         <v>45057</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>45058</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>45058</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>45068</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>45071</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>45082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20530,7 +20530,7 @@
         <v>45082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>45083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>45089</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45091</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20892,7 +20892,7 @@
         <v>45147</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>45162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>45162</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21073,7 +21073,7 @@
         <v>45162</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21135,7 +21135,7 @@
         <v>45166</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21197,7 +21197,7 @@
         <v>45166</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21254,7 +21254,7 @@
         <v>45168</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21316,7 +21316,7 @@
         <v>45168</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>45169</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>45174</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43502</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43605</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43745</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44146</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43780</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1382,14 +1382,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 52079-2021</t>
+          <t>A 21860-2020</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44463</v>
+        <v>43958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>21.6</v>
+        <v>2.6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1441,636 +1441,668 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Vickerglasvinge</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 21860-2020.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 21860-2020.png")</f>
+        <v/>
+      </c>
+      <c r="U11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/knärot/A 21860-2020.png")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 21860-2020.docx")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 21860-2020.docx")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 21860-2020.docx")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 21860-2020.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 52079-2021</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44463</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>HÄLLEFORS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Lunglav</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 52079-2021.xlsx")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 52079-2021.png")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 52079-2021.docx")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 52079-2021.docx")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 52079-2021.docx")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 52079-2021.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 27134-2022</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>44741</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>HÄLLEFORS</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="C13" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>HÄLLEFORS</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G13" t="n">
         <v>8.1</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Nattviol</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 27134-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 27134-2022.png")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 27134-2022.docx")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 27134-2022.docx")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 27134-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 27134-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 39540-2022</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>44818</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>HÄLLEFORS</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C14" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>HÄLLEFORS</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>0.5</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Norrlandslav</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 39540-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 39540-2022.png")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 39540-2022.docx")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 39540-2022.docx")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 39540-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 39540-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 54267-2022</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>44882</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>HÄLLEFORS</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="C15" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HÄLLEFORS</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>1.3</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P15" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 54267-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 54267-2022.png")</f>
         <v/>
       </c>
-      <c r="U14">
+      <c r="U15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/knärot/A 54267-2022.png")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 54267-2022.docx")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 54267-2022.docx")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 54267-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 54267-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 60162-2022</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>44909</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>HÄLLEFORS</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C16" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HÄLLEFORS</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>5.2</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 60162-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 60162-2022.png")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 60162-2022.docx")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 60162-2022.docx")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 60162-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 60162-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 4652-2023</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44957</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HÄLLEFORS</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C17" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HÄLLEFORS</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>2.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Vedtrappmossa</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 4652-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 4652-2023.png")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 4652-2023.docx")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 4652-2023.docx")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 4652-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 4652-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
         <is>
           <t>A 24357-2023</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18" s="1" t="n">
         <v>45082</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HÄLLEFORS</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="C18" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HÄLLEFORS</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>9</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Fläcknycklar</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 24357-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 24357-2023.png")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 24357-2023.docx")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 24357-2023.docx")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 24357-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 24357-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 46576-2018</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>43368</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>45181</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ÖREBRO LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>HÄLLEFORS</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr"/>
-    </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 50841-2018</t>
+          <t>A 46576-2018</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>43377</v>
+        <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2082,8 +2114,13 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>5.4</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2120,14 +2157,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 50844-2018</t>
+          <t>A 50841-2018</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>43377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2140,7 +2177,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2177,14 +2214,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 50846-2018</t>
+          <t>A 50844-2018</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>43377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2197,7 +2234,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.1</v>
+        <v>2.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2234,14 +2271,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 55042-2018</t>
+          <t>A 50846-2018</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>43396</v>
+        <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2253,13 +2290,8 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,14 +2328,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 55670-2018</t>
+          <t>A 55042-2018</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>43398</v>
+        <v>43396</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2358,14 +2390,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 57089-2018</t>
+          <t>A 55670-2018</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>43403</v>
+        <v>43398</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2383,7 +2415,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2420,14 +2452,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 58089-2018</t>
+          <t>A 57089-2018</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>43406</v>
+        <v>43403</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2445,7 +2477,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>8.800000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2482,14 +2514,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 63284-2018</t>
+          <t>A 58089-2018</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>43426</v>
+        <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2499,6 +2531,11 @@
       <c r="E26" t="inlineStr">
         <is>
           <t>HÄLLEFORS</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2539,14 +2576,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 62933-2018</t>
+          <t>A 63284-2018</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
         <v>43426</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2559,7 +2596,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2596,14 +2633,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 63264-2018</t>
+          <t>A 62933-2018</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2616,7 +2653,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2653,14 +2690,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 64886-2018</t>
+          <t>A 63264-2018</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>43431</v>
+        <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2673,7 +2710,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>13.2</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2710,14 +2747,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 68565-2018</t>
+          <t>A 64886-2018</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>43439</v>
+        <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2730,7 +2767,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>13.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2767,14 +2804,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 70057-2018</t>
+          <t>A 68565-2018</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>43445</v>
+        <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2787,7 +2824,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2824,14 +2861,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 70066-2018</t>
+          <t>A 70057-2018</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2844,7 +2881,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2881,14 +2918,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 70024-2018</t>
+          <t>A 70066-2018</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2901,7 +2938,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2938,14 +2975,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 72382-2018</t>
+          <t>A 70024-2018</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>43461</v>
+        <v>43445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2957,13 +2994,8 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3000,14 +3032,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 150-2019</t>
+          <t>A 72382-2018</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>43467</v>
+        <v>43461</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3019,8 +3051,13 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3057,14 +3094,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 1427-2019</t>
+          <t>A 150-2019</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>43473</v>
+        <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3077,7 +3114,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>34.2</v>
+        <v>1.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3114,14 +3151,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 4458-2019</t>
+          <t>A 1427-2019</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>43485</v>
+        <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3134,7 +3171,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.5</v>
+        <v>34.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3171,14 +3208,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 4529-2019</t>
+          <t>A 4458-2019</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>43486</v>
+        <v>43485</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3191,7 +3228,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3228,14 +3265,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 8015-2019</t>
+          <t>A 4529-2019</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>43493</v>
+        <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3248,7 +3285,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>11.1</v>
+        <v>2.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3285,14 +3322,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 17320-2019</t>
+          <t>A 8015-2019</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>43552</v>
+        <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3304,13 +3341,8 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>44.2</v>
+        <v>11.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3347,14 +3379,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 21399-2019</t>
+          <t>A 17320-2019</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>43580</v>
+        <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3366,8 +3398,13 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>1.4</v>
+        <v>44.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3404,14 +3441,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 22348-2019</t>
+          <t>A 21399-2019</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>43587</v>
+        <v>43580</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3424,7 +3461,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3461,14 +3498,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 24459-2019</t>
+          <t>A 22348-2019</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43600</v>
+        <v>43587</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3481,7 +3518,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>7.1</v>
+        <v>3.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3518,14 +3555,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 24477-2019</t>
+          <t>A 24459-2019</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
         <v>43600</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3538,7 +3575,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>7.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3575,14 +3612,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 30719-2019</t>
+          <t>A 24477-2019</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>43636</v>
+        <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3594,13 +3631,8 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3637,14 +3669,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 33102-2019</t>
+          <t>A 30719-2019</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>43649</v>
+        <v>43636</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3656,8 +3688,13 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3694,14 +3731,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 35743-2019</t>
+          <t>A 33102-2019</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43665</v>
+        <v>43649</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3714,7 +3751,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3751,14 +3788,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 35740-2019</t>
+          <t>A 35743-2019</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
         <v>43665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3771,7 +3808,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3808,14 +3845,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 35742-2019</t>
+          <t>A 35740-2019</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
         <v>43665</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3828,7 +3865,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3865,14 +3902,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 37325-2019</t>
+          <t>A 35742-2019</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>43678</v>
+        <v>43665</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3884,13 +3921,8 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3927,14 +3959,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 39501-2019</t>
+          <t>A 37325-2019</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43686</v>
+        <v>43678</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3948,11 +3980,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3989,14 +4021,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 38819-2019</t>
+          <t>A 39501-2019</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>43689</v>
+        <v>43686</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4008,8 +4040,13 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4046,14 +4083,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 40171-2019</t>
+          <t>A 38819-2019</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43693</v>
+        <v>43689</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4066,7 +4103,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>8.199999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4103,14 +4140,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 40311-2019</t>
+          <t>A 40171-2019</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43696</v>
+        <v>43693</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4123,7 +4160,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4160,14 +4197,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 43514-2019</t>
+          <t>A 40311-2019</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43706</v>
+        <v>43696</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4179,13 +4216,8 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4222,14 +4254,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 45768-2019</t>
+          <t>A 43514-2019</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43712</v>
+        <v>43706</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4241,8 +4273,13 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4279,14 +4316,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 47175-2019</t>
+          <t>A 45768-2019</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43721</v>
+        <v>43712</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4298,13 +4335,8 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>5.6</v>
+        <v>1.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4341,14 +4373,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 47219-2019</t>
+          <t>A 47175-2019</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
         <v>43721</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4362,11 +4394,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4403,14 +4435,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 48224-2019</t>
+          <t>A 47219-2019</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43726</v>
+        <v>43721</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4428,7 +4460,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4465,14 +4497,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 48206-2019</t>
+          <t>A 48224-2019</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
         <v>43726</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4490,7 +4522,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>13.6</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4527,14 +4559,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 51442-2019</t>
+          <t>A 48206-2019</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43732</v>
+        <v>43726</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4548,11 +4580,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.9</v>
+        <v>13.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4589,14 +4621,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 52329-2019</t>
+          <t>A 51442-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43745</v>
+        <v>43732</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4610,11 +4642,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4651,14 +4683,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 52452-2019</t>
+          <t>A 52329-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
         <v>43745</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4672,11 +4704,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>13.9</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4713,14 +4745,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 52411-2019</t>
+          <t>A 52452-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
         <v>43745</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4738,7 +4770,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>6.5</v>
+        <v>13.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4775,14 +4807,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 52711-2019</t>
+          <t>A 52411-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43746</v>
+        <v>43745</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4794,8 +4826,13 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4832,14 +4869,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 53029-2019</t>
+          <t>A 52711-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43747</v>
+        <v>43746</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4851,13 +4888,8 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4894,14 +4926,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 53062-2019</t>
+          <t>A 53029-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
         <v>43747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4919,7 +4951,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>13.9</v>
+        <v>1.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4956,14 +4988,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 53031-2019</t>
+          <t>A 53062-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
         <v>43747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +5013,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.9</v>
+        <v>13.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5018,14 +5050,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 53388-2019</t>
+          <t>A 53031-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43748</v>
+        <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,7 +5075,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>8.300000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5080,14 +5112,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 53400-2019</t>
+          <t>A 53388-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5105,7 +5137,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8.699999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5142,14 +5174,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 53965-2019</t>
+          <t>A 53400-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43752</v>
+        <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5167,7 +5199,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>14</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5204,14 +5236,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 54433-2019</t>
+          <t>A 53965-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43754</v>
+        <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5229,7 +5261,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>7.9</v>
+        <v>14</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5266,14 +5298,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 54977-2019</t>
+          <t>A 54433-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43755</v>
+        <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5291,7 +5323,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>17.5</v>
+        <v>7.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5328,14 +5360,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 55150-2019</t>
+          <t>A 54977-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43756</v>
+        <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5353,7 +5385,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>17.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5390,14 +5422,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 55129-2019</t>
+          <t>A 55150-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5452,14 +5484,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 57398-2019</t>
+          <t>A 55129-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43767</v>
+        <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5477,7 +5509,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>10.4</v>
+        <v>1.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5514,14 +5546,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 57443-2019</t>
+          <t>A 57398-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
         <v>43767</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5533,8 +5565,13 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>0.4</v>
+        <v>10.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5571,14 +5608,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 58100-2019</t>
+          <t>A 57443-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43769</v>
+        <v>43767</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5591,7 +5628,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5628,14 +5665,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 58317-2019</t>
+          <t>A 58100-2019</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43770</v>
+        <v>43769</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5648,7 +5685,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5685,14 +5722,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 65073-2019</t>
+          <t>A 58317-2019</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43802</v>
+        <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5704,13 +5741,8 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5747,14 +5779,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 65758-2019</t>
+          <t>A 65073-2019</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>43804</v>
+        <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5766,8 +5798,13 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5804,14 +5841,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 68534-2019</t>
+          <t>A 65758-2019</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43818</v>
+        <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5823,13 +5860,8 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>14.3</v>
+        <v>2.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5866,14 +5898,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 55-2020</t>
+          <t>A 68534-2019</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43832</v>
+        <v>43818</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5891,7 +5923,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>14.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5928,14 +5960,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 5089-2020</t>
+          <t>A 55-2020</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>43859</v>
+        <v>43832</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5947,8 +5979,13 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5985,14 +6022,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 6196-2020</t>
+          <t>A 5089-2020</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>43865</v>
+        <v>43859</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6004,13 +6041,8 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>18</v>
+        <v>0.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6047,14 +6079,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 6914-2020</t>
+          <t>A 6196-2020</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43868</v>
+        <v>43865</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6068,11 +6100,11 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.2</v>
+        <v>18</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6109,14 +6141,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 9959-2020</t>
+          <t>A 6914-2020</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>43882</v>
+        <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6130,11 +6162,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6171,14 +6203,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 11308-2020</t>
+          <t>A 9959-2020</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>43892</v>
+        <v>43882</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6196,7 +6228,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6233,14 +6265,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 11235-2020</t>
+          <t>A 11308-2020</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
         <v>43892</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6258,7 +6290,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6295,14 +6327,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 12170-2020</t>
+          <t>A 11235-2020</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>43895</v>
+        <v>43892</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6320,7 +6352,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6357,14 +6389,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 16829-2020</t>
+          <t>A 12170-2020</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>43921</v>
+        <v>43895</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6382,7 +6414,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6419,14 +6451,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 18000-2020</t>
+          <t>A 16829-2020</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>43927</v>
+        <v>43921</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6444,7 +6476,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>11.1</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6481,14 +6513,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 18672-2020</t>
+          <t>A 18000-2020</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6502,11 +6534,11 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>11.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6543,14 +6575,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 18669-2020</t>
+          <t>A 18672-2020</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
         <v>43930</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6568,7 +6600,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6605,14 +6637,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 20718-2020</t>
+          <t>A 18669-2020</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>43949</v>
+        <v>43930</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6626,7 +6658,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -6667,14 +6699,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 20719-2020</t>
+          <t>A 20718-2020</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
         <v>43949</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6692,7 +6724,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6729,14 +6761,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 21177-2020</t>
+          <t>A 20719-2020</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6754,7 +6786,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.5</v>
+        <v>0.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6791,14 +6823,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 21750-2020</t>
+          <t>A 21177-2020</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>43957</v>
+        <v>43951</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6810,8 +6842,13 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6848,14 +6885,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 21859-2020</t>
+          <t>A 21750-2020</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6867,13 +6904,8 @@
           <t>HÄLLEFORS</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6910,14 +6942,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 21860-2020</t>
+          <t>A 21859-2020</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
         <v>43958</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6935,7 +6967,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6968,26 +7000,6 @@
         <v>0</v>
       </c>
       <c r="R100" s="2" t="inlineStr"/>
-      <c r="U100">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/knärot/A 21860-2020.png")</f>
-        <v/>
-      </c>
-      <c r="V100">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 21860-2020.docx")</f>
-        <v/>
-      </c>
-      <c r="W100">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 21860-2020.docx")</f>
-        <v/>
-      </c>
-      <c r="X100">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 21860-2020.docx")</f>
-        <v/>
-      </c>
-      <c r="Y100">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 21860-2020.docx")</f>
-        <v/>
-      </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
@@ -6999,7 +7011,7 @@
         <v>43962</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7056,7 +7068,7 @@
         <v>43977</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7118,7 +7130,7 @@
         <v>43991</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7175,7 +7187,7 @@
         <v>43991</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7232,7 +7244,7 @@
         <v>43998</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7294,7 +7306,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7356,7 +7368,7 @@
         <v>44032</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7418,7 +7430,7 @@
         <v>44047</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7475,7 +7487,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7537,7 +7549,7 @@
         <v>44064</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7599,7 +7611,7 @@
         <v>44064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7661,7 +7673,7 @@
         <v>44064</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7723,7 +7735,7 @@
         <v>44064</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7785,7 +7797,7 @@
         <v>44064</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7847,7 +7859,7 @@
         <v>44064</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7909,7 +7921,7 @@
         <v>44064</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7971,7 +7983,7 @@
         <v>44064</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8033,7 +8045,7 @@
         <v>44064</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8095,7 +8107,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8157,7 +8169,7 @@
         <v>44067</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8219,7 +8231,7 @@
         <v>44067</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8281,7 +8293,7 @@
         <v>44069</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8338,7 +8350,7 @@
         <v>44070</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8400,7 +8412,7 @@
         <v>44074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8462,7 +8474,7 @@
         <v>44077</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8524,7 +8536,7 @@
         <v>44083</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8581,7 +8593,7 @@
         <v>44085</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8643,7 +8655,7 @@
         <v>44089</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8705,7 +8717,7 @@
         <v>44098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8767,7 +8779,7 @@
         <v>44098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8829,7 +8841,7 @@
         <v>44098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8891,7 +8903,7 @@
         <v>44098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8953,7 +8965,7 @@
         <v>44102</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9015,7 +9027,7 @@
         <v>44102</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9077,7 +9089,7 @@
         <v>44106</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9139,7 +9151,7 @@
         <v>44106</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9201,7 +9213,7 @@
         <v>44106</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9263,7 +9275,7 @@
         <v>44106</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9325,7 +9337,7 @@
         <v>44108</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9382,7 +9394,7 @@
         <v>44110</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9444,7 +9456,7 @@
         <v>44145</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9501,7 +9513,7 @@
         <v>44146</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9583,7 +9595,7 @@
         <v>44146</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9645,7 +9657,7 @@
         <v>44147</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9707,7 +9719,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9769,7 +9781,7 @@
         <v>44153</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9831,7 +9843,7 @@
         <v>44160</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9893,7 +9905,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9955,7 +9967,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10012,7 +10024,7 @@
         <v>44161</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10074,7 +10086,7 @@
         <v>44174</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10131,7 +10143,7 @@
         <v>44174</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10188,7 +10200,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10250,7 +10262,7 @@
         <v>44181</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10312,7 +10324,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10369,7 +10381,7 @@
         <v>44221</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10431,7 +10443,7 @@
         <v>44238</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10493,7 +10505,7 @@
         <v>44256</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10550,7 +10562,7 @@
         <v>44260</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10612,7 +10624,7 @@
         <v>44260</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10669,7 +10681,7 @@
         <v>44260</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10731,7 +10743,7 @@
         <v>44264</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10788,7 +10800,7 @@
         <v>44266</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10845,7 +10857,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10907,7 +10919,7 @@
         <v>44271</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10969,7 +10981,7 @@
         <v>44273</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11031,7 +11043,7 @@
         <v>44308</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11088,7 +11100,7 @@
         <v>44314</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11150,7 +11162,7 @@
         <v>44314</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11212,7 +11224,7 @@
         <v>44314</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11274,7 +11286,7 @@
         <v>44314</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11336,7 +11348,7 @@
         <v>44314</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11398,7 +11410,7 @@
         <v>44323</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11460,7 +11472,7 @@
         <v>44348</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11522,7 +11534,7 @@
         <v>44348</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11584,7 +11596,7 @@
         <v>44350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11646,7 +11658,7 @@
         <v>44351</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11708,7 +11720,7 @@
         <v>44357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11770,7 +11782,7 @@
         <v>44383</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11827,7 +11839,7 @@
         <v>44386</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11889,7 +11901,7 @@
         <v>44393</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11951,7 +11963,7 @@
         <v>44411</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12008,7 +12020,7 @@
         <v>44442</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12070,7 +12082,7 @@
         <v>44442</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12132,7 +12144,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12189,7 +12201,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12246,7 +12258,7 @@
         <v>44462</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12308,7 +12320,7 @@
         <v>44477</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12365,7 +12377,7 @@
         <v>44487</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12427,7 +12439,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12484,7 +12496,7 @@
         <v>44515</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12541,7 +12553,7 @@
         <v>44523</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12598,7 +12610,7 @@
         <v>44525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12655,7 +12667,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12717,7 +12729,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12779,7 +12791,7 @@
         <v>44543</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12841,7 +12853,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12903,7 +12915,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12960,7 +12972,7 @@
         <v>44593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13017,7 +13029,7 @@
         <v>44610</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13079,7 +13091,7 @@
         <v>44613</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13141,7 +13153,7 @@
         <v>44613</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13203,7 +13215,7 @@
         <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13260,7 +13272,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13317,7 +13329,7 @@
         <v>44616</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13374,7 +13386,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13431,7 +13443,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13488,7 +13500,7 @@
         <v>44616</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13545,7 +13557,7 @@
         <v>44645</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13607,7 +13619,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13664,7 +13676,7 @@
         <v>44662</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13726,7 +13738,7 @@
         <v>44686</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13788,7 +13800,7 @@
         <v>44692</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13850,7 +13862,7 @@
         <v>44699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13907,7 +13919,7 @@
         <v>44719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13969,7 +13981,7 @@
         <v>44721</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14031,7 +14043,7 @@
         <v>44722</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14093,7 +14105,7 @@
         <v>44722</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14155,7 +14167,7 @@
         <v>44748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14212,7 +14224,7 @@
         <v>44749</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14269,7 +14281,7 @@
         <v>44750</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14331,7 +14343,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14393,7 +14405,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14455,7 +14467,7 @@
         <v>44754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14517,7 +14529,7 @@
         <v>44754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14579,7 +14591,7 @@
         <v>44754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14641,7 +14653,7 @@
         <v>44754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14703,7 +14715,7 @@
         <v>44754</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14765,7 +14777,7 @@
         <v>44754</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14827,7 +14839,7 @@
         <v>44756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14889,7 +14901,7 @@
         <v>44760</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14946,7 +14958,7 @@
         <v>44762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15003,7 +15015,7 @@
         <v>44782</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15060,7 +15072,7 @@
         <v>44782</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15117,7 +15129,7 @@
         <v>44782</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15174,7 +15186,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15236,7 +15248,7 @@
         <v>44792</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15298,7 +15310,7 @@
         <v>44792</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15360,7 +15372,7 @@
         <v>44795</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15417,7 +15429,7 @@
         <v>44798</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15479,7 +15491,7 @@
         <v>44806</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15541,7 +15553,7 @@
         <v>44811</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15598,7 +15610,7 @@
         <v>44811</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15655,7 +15667,7 @@
         <v>44812</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15712,7 +15724,7 @@
         <v>44817</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15774,7 +15786,7 @@
         <v>44819</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15836,7 +15848,7 @@
         <v>44823</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15893,7 +15905,7 @@
         <v>44823</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15950,7 +15962,7 @@
         <v>44825</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16012,7 +16024,7 @@
         <v>44830</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16074,7 +16086,7 @@
         <v>44839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16136,7 +16148,7 @@
         <v>44839</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16198,7 +16210,7 @@
         <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16260,7 +16272,7 @@
         <v>44841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16322,7 +16334,7 @@
         <v>44852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16384,7 +16396,7 @@
         <v>44858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16446,7 +16458,7 @@
         <v>44861</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16508,7 +16520,7 @@
         <v>44861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16570,7 +16582,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16632,7 +16644,7 @@
         <v>44867</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16694,7 +16706,7 @@
         <v>44871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16751,7 +16763,7 @@
         <v>44872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16813,7 +16825,7 @@
         <v>44873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16875,7 +16887,7 @@
         <v>44873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16937,7 +16949,7 @@
         <v>44873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16999,7 +17011,7 @@
         <v>44874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17061,7 +17073,7 @@
         <v>44874</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17123,7 +17135,7 @@
         <v>44876</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17185,7 +17197,7 @@
         <v>44876</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17247,7 +17259,7 @@
         <v>44886</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17304,7 +17316,7 @@
         <v>44887</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17366,7 +17378,7 @@
         <v>44894</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17428,7 +17440,7 @@
         <v>44896</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17490,7 +17502,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17552,7 +17564,7 @@
         <v>44907</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17614,7 +17626,7 @@
         <v>44909</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17671,7 +17683,7 @@
         <v>44923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17728,7 +17740,7 @@
         <v>44928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17785,7 +17797,7 @@
         <v>44930</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17842,7 +17854,7 @@
         <v>44942</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17899,7 +17911,7 @@
         <v>44958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17961,7 +17973,7 @@
         <v>44959</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18018,7 +18030,7 @@
         <v>44965</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18080,7 +18092,7 @@
         <v>44979</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18142,7 +18154,7 @@
         <v>44979</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18199,7 +18211,7 @@
         <v>44981</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18261,7 +18273,7 @@
         <v>44981</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18323,7 +18335,7 @@
         <v>44981</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18385,7 +18397,7 @@
         <v>44981</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18447,7 +18459,7 @@
         <v>44981</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18509,7 +18521,7 @@
         <v>44981</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18571,7 +18583,7 @@
         <v>44986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18633,7 +18645,7 @@
         <v>44987</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18690,7 +18702,7 @@
         <v>45000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18752,7 +18764,7 @@
         <v>45000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18814,7 +18826,7 @@
         <v>45000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18876,7 +18888,7 @@
         <v>45000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18938,7 +18950,7 @@
         <v>45000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19000,7 +19012,7 @@
         <v>45005</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19062,7 +19074,7 @@
         <v>45009</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19124,7 +19136,7 @@
         <v>45009</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19186,7 +19198,7 @@
         <v>45019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19248,7 +19260,7 @@
         <v>45019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19310,7 +19322,7 @@
         <v>45019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19372,7 +19384,7 @@
         <v>45022</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19429,7 +19441,7 @@
         <v>45027</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19491,7 +19503,7 @@
         <v>45027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19553,7 +19565,7 @@
         <v>45037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19615,7 +19627,7 @@
         <v>45037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19677,7 +19689,7 @@
         <v>45037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19739,7 +19751,7 @@
         <v>45037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19801,7 +19813,7 @@
         <v>45044</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19858,7 +19870,7 @@
         <v>45048</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19920,7 +19932,7 @@
         <v>45051</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19982,7 +19994,7 @@
         <v>45055</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20044,7 +20056,7 @@
         <v>45057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20106,7 +20118,7 @@
         <v>45057</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20168,7 +20180,7 @@
         <v>45057</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20230,7 +20242,7 @@
         <v>45058</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20292,7 +20304,7 @@
         <v>45058</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20349,7 +20361,7 @@
         <v>45068</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20411,7 +20423,7 @@
         <v>45071</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20468,7 +20480,7 @@
         <v>45082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20530,7 +20542,7 @@
         <v>45082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20604,7 @@
         <v>45083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20661,7 @@
         <v>45089</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20718,7 @@
         <v>45091</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20768,7 +20780,7 @@
         <v>45145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20830,7 +20842,7 @@
         <v>45145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20892,7 +20904,7 @@
         <v>45147</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20949,7 +20961,7 @@
         <v>45162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21011,7 +21023,7 @@
         <v>45162</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21073,7 +21085,7 @@
         <v>45162</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21135,7 +21147,7 @@
         <v>45166</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21197,7 +21209,7 @@
         <v>45166</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21254,7 +21266,7 @@
         <v>45168</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21316,7 +21328,7 @@
         <v>45168</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21378,7 +21390,7 @@
         <v>45169</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21440,7 +21452,7 @@
         <v>45174</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43502</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43605</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43745</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44146</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43780</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44818</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44882</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>44957</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45082</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43396</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43398</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43403</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43426</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43461</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43485</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43580</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43587</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43600</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43636</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43649</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43665</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43665</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43678</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43686</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43689</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43693</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43696</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>43706</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43712</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43721</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43721</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43726</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43726</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43732</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43745</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43745</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43745</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43746</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43767</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43767</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43769</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43818</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43832</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43859</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43865</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43882</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43892</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43892</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43895</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43921</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43927</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43930</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43930</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43949</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43951</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43958</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43962</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43977</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43991</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43991</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43998</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44032</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44047</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44064</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44064</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44064</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44064</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>44064</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44064</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44064</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44064</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44067</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>44067</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>44069</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>44070</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>44074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44077</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44083</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44085</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44089</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>44098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44102</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>44102</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>44106</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>44106</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44106</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>44106</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44108</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44110</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44145</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44146</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44146</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>44147</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44153</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44160</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44161</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>44174</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>44174</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>44181</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44221</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>44238</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>44256</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>44260</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44260</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44260</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44264</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44266</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44271</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44273</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44308</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44314</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44314</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44314</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44314</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>44314</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44323</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44348</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44348</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>44351</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44383</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44386</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44393</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>44411</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44442</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44442</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44462</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44477</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44487</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>44515</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44523</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>44525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44543</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44610</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>44613</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44613</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44616</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44616</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44645</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44662</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44686</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44692</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>44721</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44722</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44722</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44749</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44750</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>44754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44754</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44754</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>44760</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44782</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44782</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44782</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44792</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44792</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44795</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44798</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44806</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44811</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44811</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44812</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44817</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44819</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44823</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44823</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44825</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44830</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44839</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>44858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44861</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>44861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44867</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         <v>44871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44874</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44876</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44876</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44886</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44887</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44894</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44896</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44907</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44909</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44930</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44942</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44959</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44965</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44979</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44979</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44981</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44981</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44981</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44981</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44981</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44981</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44987</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>45005</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>45009</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>45009</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>45019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>45019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>45019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>45022</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>45027</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>45027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>45037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>45037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>45037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>45044</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>45048</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>45051</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>45055</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>45057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>45057</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>45057</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>45058</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>45058</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45068</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45071</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>45082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45089</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45091</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>45145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>45145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>45147</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>45162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45162</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>45162</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>45166</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>45166</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45168</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45168</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45169</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>45174</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -630,27 +630,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 8503-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 8503-2019.xlsx", "A 8503-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 8503-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 8503-2019.png", "A 8503-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 8503-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 8503-2019.docx", "A 8503-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 8503-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 8503-2019.docx", "A 8503-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 8503-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 8503-2019.docx", "A 8503-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 8503-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 8503-2019.docx", "A 8503-2019")</f>
         <v/>
       </c>
     </row>
@@ -664,7 +664,7 @@
         <v>43502</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 8507-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 8507-2019.xlsx", "A 8507-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 8507-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 8507-2019.png", "A 8507-2019")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/knärot/A 8507-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/knärot/A 8507-2019.png", "A 8507-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 8507-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 8507-2019.docx", "A 8507-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 8507-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 8507-2019.docx", "A 8507-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 8507-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 8507-2019.docx", "A 8507-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 8507-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 8507-2019.docx", "A 8507-2019")</f>
         <v/>
       </c>
     </row>
@@ -760,7 +760,7 @@
         <v>43605</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -816,27 +816,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 25291-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 25291-2019.xlsx", "A 25291-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 25291-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 25291-2019.png", "A 25291-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 25291-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 25291-2019.docx", "A 25291-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 25291-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 25291-2019.docx", "A 25291-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 25291-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 25291-2019.docx", "A 25291-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 25291-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 25291-2019.docx", "A 25291-2019")</f>
         <v/>
       </c>
     </row>
@@ -850,7 +850,7 @@
         <v>43487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -904,27 +904,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 5099-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 5099-2019.xlsx", "A 5099-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 5099-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 5099-2019.png", "A 5099-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 5099-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 5099-2019.docx", "A 5099-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 5099-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 5099-2019.docx", "A 5099-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 5099-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 5099-2019.docx", "A 5099-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 5099-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 5099-2019.docx", "A 5099-2019")</f>
         <v/>
       </c>
     </row>
@@ -938,7 +938,7 @@
         <v>43699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -996,27 +996,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 41546-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 41546-2019.xlsx", "A 41546-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 41546-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 41546-2019.png", "A 41546-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 41546-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 41546-2019.docx", "A 41546-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 41546-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 41546-2019.docx", "A 41546-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 41546-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 41546-2019.docx", "A 41546-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 41546-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 41546-2019.docx", "A 41546-2019")</f>
         <v/>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
         <v>43745</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1088,27 +1088,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 52328-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 52328-2019.xlsx", "A 52328-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 52328-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 52328-2019.png", "A 52328-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 52328-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 52328-2019.docx", "A 52328-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 52328-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 52328-2019.docx", "A 52328-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 52328-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 52328-2019.docx", "A 52328-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 52328-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 52328-2019.docx", "A 52328-2019")</f>
         <v/>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
         <v>44146</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1179,27 +1179,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 58760-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 58760-2020.xlsx", "A 58760-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 58760-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 58760-2020.png", "A 58760-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 58760-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 58760-2020.docx", "A 58760-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 58760-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 58760-2020.docx", "A 58760-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 58760-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 58760-2020.docx", "A 58760-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 58760-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 58760-2020.docx", "A 58760-2020")</f>
         <v/>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
         <v>44594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,27 +1265,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 5360-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 5360-2022.xlsx", "A 5360-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 5360-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 5360-2022.png", "A 5360-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 5360-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 5360-2022.docx", "A 5360-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 5360-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 5360-2022.docx", "A 5360-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 5360-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 5360-2022.docx", "A 5360-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 5360-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 5360-2022.docx", "A 5360-2022")</f>
         <v/>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
         <v>43780</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1355,27 +1355,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 60270-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 60270-2019.xlsx", "A 60270-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 60270-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 60270-2019.png", "A 60270-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 60270-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 60270-2019.docx", "A 60270-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 60270-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 60270-2019.docx", "A 60270-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 60270-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 60270-2019.docx", "A 60270-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 60270-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 60270-2019.docx", "A 60270-2019")</f>
         <v/>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
         <v>43958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,31 +1445,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 21860-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 21860-2020.xlsx", "A 21860-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 21860-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 21860-2020.png", "A 21860-2020")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/knärot/A 21860-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/knärot/A 21860-2020.png", "A 21860-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 21860-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 21860-2020.docx", "A 21860-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 21860-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 21860-2020.docx", "A 21860-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 21860-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 21860-2020.docx", "A 21860-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 21860-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 21860-2020.docx", "A 21860-2020")</f>
         <v/>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,27 +1539,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 52079-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 52079-2021.xlsx", "A 52079-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 52079-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 52079-2021.png", "A 52079-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 52079-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 52079-2021.docx", "A 52079-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 52079-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 52079-2021.docx", "A 52079-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 52079-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 52079-2021.docx", "A 52079-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 52079-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 52079-2021.docx", "A 52079-2021")</f>
         <v/>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1629,27 +1629,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 27134-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 27134-2022.xlsx", "A 27134-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 27134-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 27134-2022.png", "A 27134-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 27134-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 27134-2022.docx", "A 27134-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 27134-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 27134-2022.docx", "A 27134-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 27134-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 27134-2022.docx", "A 27134-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 27134-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 27134-2022.docx", "A 27134-2022")</f>
         <v/>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
         <v>44818</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1714,27 +1714,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 39540-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 39540-2022.xlsx", "A 39540-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 39540-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 39540-2022.png", "A 39540-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 39540-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 39540-2022.docx", "A 39540-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 39540-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 39540-2022.docx", "A 39540-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 39540-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 39540-2022.docx", "A 39540-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 39540-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 39540-2022.docx", "A 39540-2022")</f>
         <v/>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
         <v>44882</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1804,31 +1804,31 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 54267-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 54267-2022.xlsx", "A 54267-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 54267-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 54267-2022.png", "A 54267-2022")</f>
         <v/>
       </c>
       <c r="U15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/knärot/A 54267-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/knärot/A 54267-2022.png", "A 54267-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 54267-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 54267-2022.docx", "A 54267-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 54267-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 54267-2022.docx", "A 54267-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 54267-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 54267-2022.docx", "A 54267-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 54267-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 54267-2022.docx", "A 54267-2022")</f>
         <v/>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1893,27 +1893,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 60162-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 60162-2022.xlsx", "A 60162-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 60162-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 60162-2022.png", "A 60162-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 60162-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 60162-2022.docx", "A 60162-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 60162-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 60162-2022.docx", "A 60162-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 60162-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 60162-2022.docx", "A 60162-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 60162-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 60162-2022.docx", "A 60162-2022")</f>
         <v/>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
         <v>44957</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1978,27 +1978,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 4652-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 4652-2023.xlsx", "A 4652-2023")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 4652-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 4652-2023.png", "A 4652-2023")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 4652-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 4652-2023.docx", "A 4652-2023")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 4652-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 4652-2023.docx", "A 4652-2023")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 4652-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 4652-2023.docx", "A 4652-2023")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 4652-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 4652-2023.docx", "A 4652-2023")</f>
         <v/>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
         <v>45082</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2068,27 +2068,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 24357-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/artfynd/A 24357-2023.xlsx", "A 24357-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 24357-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/kartor/A 24357-2023.png", "A 24357-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 24357-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 24357-2023.docx", "A 24357-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 24357-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 24357-2023.docx", "A 24357-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 24357-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 24357-2023.docx", "A 24357-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 24357-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 24357-2023.docx", "A 24357-2023")</f>
         <v/>
       </c>
     </row>
@@ -2102,7 +2102,7 @@
         <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43396</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43398</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43403</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43426</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43461</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43485</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43580</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43587</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43600</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43636</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43649</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43665</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43665</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43678</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43686</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43689</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43693</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43696</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>43706</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43712</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43721</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43721</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43726</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43726</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43732</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43745</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43745</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43745</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43746</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43767</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43767</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43769</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43818</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43832</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43859</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43865</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43882</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43892</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43892</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43895</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43921</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43927</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43930</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43930</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43949</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43951</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43958</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43962</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43977</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43991</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43991</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43998</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44032</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44047</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44064</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44064</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44064</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44064</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>44064</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44064</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44064</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44064</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44067</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>44067</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>44069</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>44070</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>44074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44077</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44083</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44085</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44089</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>44098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44102</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>44102</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>44106</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>44106</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44106</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>44106</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44108</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44110</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44145</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44146</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9565,23 +9565,23 @@
       </c>
       <c r="R142" s="2" t="inlineStr"/>
       <c r="U142">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/knärot/A 58756-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/knärot/A 58756-2020.png", "A 58756-2020")</f>
         <v/>
       </c>
       <c r="V142">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 58756-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomål/A 58756-2020.docx", "A 58756-2020")</f>
         <v/>
       </c>
       <c r="W142">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 58756-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/klagomålsmail/A 58756-2020.docx", "A 58756-2020")</f>
         <v/>
       </c>
       <c r="X142">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 58756-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsyn/A 58756-2020.docx", "A 58756-2020")</f>
         <v/>
       </c>
       <c r="Y142">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 58756-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLEFORS/tillsynsmail/A 58756-2020.docx", "A 58756-2020")</f>
         <v/>
       </c>
     </row>
@@ -9595,7 +9595,7 @@
         <v>44146</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>44147</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44153</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44160</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44161</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>44174</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>44174</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>44181</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44221</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>44238</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>44256</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>44260</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44260</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44260</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44264</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44266</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44271</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44273</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44308</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44314</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44314</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44314</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44314</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>44314</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44323</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44348</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44348</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>44351</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44383</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44386</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44393</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>44411</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44442</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44442</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44462</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44477</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44487</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>44515</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44523</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>44525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44543</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44610</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>44613</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44613</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44616</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44616</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44645</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44662</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44686</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44692</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>44721</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44722</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44722</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44749</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44750</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>44754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44754</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44754</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>44760</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44782</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44782</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44782</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44792</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44792</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44795</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44798</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44806</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44811</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44811</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44812</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44817</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44819</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44823</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44823</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44825</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44830</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44839</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>44858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44861</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>44861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44867</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         <v>44871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44874</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44876</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44876</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44886</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44887</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44894</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44896</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44907</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44909</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44930</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44942</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44959</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44965</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44979</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44979</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44981</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44981</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44981</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44981</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44981</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44981</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44987</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>45005</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>45009</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>45009</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>45019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>45019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>45019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>45022</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>45027</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>45027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>45037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>45037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>45037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>45044</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>45048</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>45051</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>45055</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>45057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>45057</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>45057</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>45058</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>45058</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45068</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45071</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>45082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45089</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45091</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>45145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>45145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>45147</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>45162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45162</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>45162</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>45166</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>45166</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45168</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45168</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45169</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>45174</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43502</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43605</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43745</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44146</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43780</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44818</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44882</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>44957</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45082</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43396</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43398</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43403</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43426</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43461</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43485</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43580</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43587</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43600</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43636</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43649</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43665</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43665</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43678</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43686</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43689</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43693</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43696</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>43706</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43712</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43721</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43721</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43726</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43726</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43732</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43745</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43745</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43745</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43746</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43767</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43767</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43769</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43818</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43832</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43859</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43865</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43882</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43892</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43892</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43895</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43921</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43927</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43930</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43930</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43949</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43951</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43958</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43962</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43977</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43991</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43991</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43998</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44032</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44047</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44064</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44064</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44064</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44064</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>44064</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44064</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44064</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44064</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44067</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>44067</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>44069</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>44070</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>44074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44077</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44083</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44085</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44089</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>44098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44102</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>44102</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>44106</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>44106</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44106</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>44106</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44108</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44110</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44145</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44146</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44146</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>44147</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44153</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44160</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44161</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>44174</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>44174</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>44181</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44221</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>44238</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>44256</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>44260</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44260</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44260</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44264</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44266</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44271</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44273</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44308</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44314</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44314</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44314</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44314</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>44314</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44323</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44348</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44348</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>44351</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44383</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44386</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44393</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>44411</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44442</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44442</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44462</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44477</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44487</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>44515</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44523</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>44525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44543</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44610</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>44613</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44613</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44616</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44616</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44645</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44662</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44686</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44692</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>44721</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44722</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44722</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44749</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44750</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>44754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44754</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44754</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>44760</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44782</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44782</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44782</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44792</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44792</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44795</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44798</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44806</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44811</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44811</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44812</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44817</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44819</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44823</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44823</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44825</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44830</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44839</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>44858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44861</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>44861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44867</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         <v>44871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44874</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44876</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44876</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44886</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44887</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44894</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44896</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44907</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44909</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44930</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44942</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44959</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44965</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44979</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44979</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44981</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44981</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44981</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44981</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44981</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44981</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44987</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>45005</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>45009</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>45009</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>45019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>45019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>45019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>45022</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>45027</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>45027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>45037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>45037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>45037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>45044</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>45048</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>45051</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>45055</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>45057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>45057</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>45057</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>45058</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>45058</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45068</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45071</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>45082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45089</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45091</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>45145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>45145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>45147</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>45162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45162</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>45162</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>45166</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>45166</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45168</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45168</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45169</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>45174</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43502</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43605</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43745</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44146</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43780</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44818</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44882</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>44957</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45082</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43396</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43398</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43403</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43426</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43461</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43485</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43580</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43587</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43600</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43636</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43649</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43665</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43665</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43678</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43686</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43689</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43693</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43696</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>43706</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43712</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43721</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43721</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43726</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43726</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43732</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43745</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43745</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43745</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43746</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43767</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43767</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43769</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43818</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43832</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43859</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43865</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43882</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43892</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43892</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43895</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43921</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43927</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43930</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43930</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43949</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43951</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43958</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43962</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43977</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43991</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43991</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43998</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44032</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44047</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44064</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44064</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44064</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44064</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>44064</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44064</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44064</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44064</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44067</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>44067</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>44069</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>44070</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>44074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44077</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44083</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44085</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44089</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>44098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44102</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>44102</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>44106</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>44106</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44106</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>44106</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44108</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44110</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44145</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44146</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44146</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>44147</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44153</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44160</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44161</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>44174</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>44174</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>44181</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44221</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>44238</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>44256</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>44260</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44260</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44260</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44264</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44266</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44271</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44273</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44308</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44314</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44314</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44314</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44314</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>44314</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44323</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44348</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44348</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>44351</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44383</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44386</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44393</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>44411</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44442</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44442</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44462</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44477</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44487</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>44515</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44523</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>44525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44543</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44610</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>44613</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44613</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44616</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44616</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44645</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44662</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44686</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44692</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>44721</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44722</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44722</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44749</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44750</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>44754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44754</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44754</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>44760</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44782</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44782</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44782</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44792</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44792</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44795</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44798</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44806</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44811</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44811</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44812</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44817</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44819</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44823</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44823</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44825</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44830</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44839</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>44858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44861</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>44861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44867</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         <v>44871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44874</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44876</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44876</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44886</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44887</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44894</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44896</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44907</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44909</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44930</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44942</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44959</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44965</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44979</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44979</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44981</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44981</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44981</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44981</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44981</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44981</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44987</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>45005</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>45009</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>45009</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>45019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>45019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>45019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>45022</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>45027</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>45027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>45037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>45037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>45037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>45044</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>45048</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>45051</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>45055</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>45057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>45057</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>45057</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>45058</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>45058</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45068</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45071</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>45082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45089</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45091</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>45145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>45145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>45147</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>45162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45162</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>45162</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>45166</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>45166</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45168</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45168</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45169</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>45174</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43502</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43605</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43745</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44146</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43780</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44818</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44882</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>44957</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45082</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43396</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43398</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43403</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43426</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43461</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43485</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43580</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43587</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43600</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43636</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43649</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43665</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43665</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43678</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43686</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43689</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43693</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43696</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>43706</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43712</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43721</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43721</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43726</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43726</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43732</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43745</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43745</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43745</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43746</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43767</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43767</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43769</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43818</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43832</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43859</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43865</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43882</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43892</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43892</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43895</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43921</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43927</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43930</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43930</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43949</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43951</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43958</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43962</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43977</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43991</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43991</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43998</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44032</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44047</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44064</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44064</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44064</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44064</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>44064</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44064</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44064</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44064</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44067</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>44067</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>44069</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>44070</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>44074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44077</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44083</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44085</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44089</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>44098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44102</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>44102</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>44106</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>44106</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44106</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>44106</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44108</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44110</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44145</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44146</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44146</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>44147</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44153</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44160</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44161</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>44174</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>44174</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>44181</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44221</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>44238</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>44256</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>44260</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44260</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44260</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44264</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44266</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44271</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44273</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44308</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44314</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44314</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44314</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44314</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>44314</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44323</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44348</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44348</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>44351</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44383</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44386</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44393</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>44411</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44442</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44442</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44462</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44477</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44487</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>44515</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44523</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>44525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44543</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44610</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>44613</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44613</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44616</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44616</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44645</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44662</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44686</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44692</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>44721</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44722</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44722</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44749</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44750</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>44754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44754</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44754</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>44760</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44782</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44782</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44782</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44792</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44792</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44795</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44798</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44806</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44811</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44811</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44812</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44817</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44819</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44823</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44823</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44825</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44830</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44839</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>44858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44861</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>44861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44867</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         <v>44871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44874</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44876</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44876</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44886</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44887</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44894</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44896</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44907</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44909</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44930</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44942</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44959</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44965</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44979</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44979</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44981</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44981</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44981</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44981</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44981</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44981</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44987</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>45005</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>45009</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>45009</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>45019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>45019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>45019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>45022</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>45027</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>45027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>45037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>45037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>45037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>45044</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>45048</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>45051</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>45055</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>45057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>45057</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>45057</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>45058</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>45058</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45068</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45071</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>45082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45089</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45091</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>45145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>45145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>45147</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>45162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45162</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>45162</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>45166</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>45166</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45168</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45168</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45169</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>45174</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43502</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43605</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43745</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44146</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43780</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44818</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44882</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>44957</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45082</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43396</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43398</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43403</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43426</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43461</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43485</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43580</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43587</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43600</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43636</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43649</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43665</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43665</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43678</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43686</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43689</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43693</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43696</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>43706</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43712</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43721</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43721</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43726</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43726</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43732</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43745</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43745</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43745</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43746</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43767</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43767</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43769</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43818</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43832</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43859</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43865</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43882</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43892</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43892</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43895</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43921</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43927</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43930</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43930</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43949</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43951</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43958</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43962</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43977</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43991</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43991</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43998</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44032</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44047</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44064</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44064</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44064</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44064</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>44064</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44064</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44064</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44064</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44067</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>44067</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>44069</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>44070</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>44074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44077</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44083</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44085</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44089</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>44098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44102</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>44102</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>44106</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>44106</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44106</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>44106</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44108</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44110</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44145</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44146</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44146</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>44147</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44153</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44160</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44161</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>44174</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>44174</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>44181</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44221</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>44238</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>44256</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>44260</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44260</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44260</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44264</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44266</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44271</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44273</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44308</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44314</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44314</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44314</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44314</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>44314</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44323</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44348</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44348</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>44351</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44383</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44386</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44393</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>44411</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44442</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44442</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44462</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44477</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44487</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>44515</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44523</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>44525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44543</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44610</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>44613</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44613</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44616</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44616</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44645</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44662</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44686</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44692</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>44721</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44722</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44722</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44749</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44750</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>44754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44754</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44754</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>44760</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44782</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44782</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44782</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44792</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44792</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44795</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44798</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44806</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44811</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44811</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44812</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44817</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44819</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44823</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44823</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44825</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44830</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44839</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>44858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44861</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>44861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44867</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         <v>44871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44874</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44876</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44876</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44886</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44887</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44894</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44896</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44907</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44909</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44930</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44942</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44959</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44965</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44979</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44979</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44981</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44981</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44981</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44981</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44981</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44981</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44987</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>45005</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>45009</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>45009</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>45019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>45019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>45019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>45022</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>45027</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>45027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>45037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>45037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>45037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>45044</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>45048</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>45051</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>45055</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>45057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>45057</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>45057</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>45058</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>45058</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45068</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45071</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>45082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45089</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45091</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>45145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>45145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>45147</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>45162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45162</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>45162</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>45166</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>45166</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45168</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45168</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45169</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>45174</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43502</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43605</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43745</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44146</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43780</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44818</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44882</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>44957</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45082</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43396</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43398</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43403</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43426</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43461</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43485</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43580</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43587</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43600</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43636</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43649</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43665</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43665</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43678</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43686</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43689</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43693</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43696</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>43706</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43712</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43721</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43721</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43726</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43726</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43732</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43745</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43745</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43745</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43746</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43767</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43767</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43769</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43818</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43832</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43859</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43865</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43882</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43892</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43892</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43895</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43921</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43927</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43930</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43930</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43949</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43951</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43958</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43962</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43977</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43991</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43991</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43998</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44032</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44047</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44064</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44064</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44064</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44064</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>44064</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44064</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44064</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44064</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44067</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>44067</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>44069</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>44070</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>44074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44077</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44083</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44085</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44089</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>44098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44102</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>44102</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>44106</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>44106</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44106</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>44106</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44108</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44110</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44145</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44146</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44146</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>44147</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44153</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44160</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44161</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>44174</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>44174</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>44181</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44221</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>44238</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>44256</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>44260</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44260</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44260</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44264</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44266</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44271</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44273</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44308</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44314</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44314</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44314</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44314</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>44314</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44323</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44348</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44348</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>44351</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44383</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44386</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44393</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>44411</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44442</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44442</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44462</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44477</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44487</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>44515</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44523</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>44525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44543</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44610</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>44613</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44613</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44616</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44616</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44645</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44662</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44686</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44692</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>44721</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44722</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44722</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44749</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44750</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>44754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44754</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44754</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>44760</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44782</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44782</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44782</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44792</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44792</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44795</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44798</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44806</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44811</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44811</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44812</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44817</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44819</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44823</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44823</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44825</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44830</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44839</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>44858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44861</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>44861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44867</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         <v>44871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44874</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44876</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44876</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44886</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44887</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44894</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44896</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44907</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44909</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44930</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44942</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44959</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44965</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44979</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44979</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44981</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44981</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44981</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44981</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44981</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44981</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44987</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>45005</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>45009</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>45009</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>45019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>45019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>45019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>45022</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>45027</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>45027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>45037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>45037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>45037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>45044</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>45048</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>45051</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>45055</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>45057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>45057</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>45057</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>45058</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>45058</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45068</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45071</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>45082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45089</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45091</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>45145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>45145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>45147</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>45162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45162</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>45162</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>45166</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>45166</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45168</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45168</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45169</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>45174</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y339"/>
+  <dimension ref="A1:Y340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43502</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43605</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43745</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44146</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43780</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44818</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44882</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>44957</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45082</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43396</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43398</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43403</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43426</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43461</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43485</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43580</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43587</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43600</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43636</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43649</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43665</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43665</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43678</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43686</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43689</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43693</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43696</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>43706</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43712</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43721</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43721</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43726</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43726</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43732</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43745</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43745</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43745</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43746</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43767</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43767</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43769</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43818</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43832</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43859</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43865</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43882</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43892</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43892</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43895</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43921</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43927</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43930</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43930</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43949</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43951</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43958</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43962</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43977</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43991</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43991</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43998</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44032</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44047</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44064</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44064</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44064</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44064</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>44064</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44064</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44064</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44064</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44067</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>44067</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>44069</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>44070</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>44074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44077</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44083</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44085</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44089</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>44098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44102</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>44102</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>44106</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>44106</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44106</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>44106</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44108</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44110</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44145</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44146</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44146</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>44147</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44153</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44160</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44161</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>44174</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>44174</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>44181</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44221</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>44238</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>44256</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>44260</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44260</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44260</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44264</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44266</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44271</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44273</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44308</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44314</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44314</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44314</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44314</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>44314</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44323</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44348</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44348</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>44351</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44383</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44386</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44393</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>44411</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44442</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44442</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44462</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44477</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44487</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>44515</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44523</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>44525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44543</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44610</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>44613</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44613</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44616</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44616</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44645</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44662</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44686</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44692</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>44721</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44722</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44722</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44749</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44750</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>44754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44754</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44754</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>44760</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44782</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44782</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44782</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44792</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44792</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44795</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44798</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44806</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44811</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44811</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44812</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44817</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44819</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44823</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44823</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44825</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44830</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44839</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>44858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44861</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>44861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44867</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         <v>44871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44874</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44876</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44876</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44886</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44887</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44894</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44896</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44907</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44909</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44930</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44942</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44959</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44965</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44979</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44979</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44981</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44981</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44981</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44981</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44981</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44981</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44987</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>45005</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>45009</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>45009</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>45019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>45019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>45019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>45022</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>45027</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>45027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>45037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>45037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>45037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>45044</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>45048</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>45051</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>45055</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>45057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>45057</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>45057</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>45058</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>45058</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45068</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45071</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>45082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45089</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45091</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>45145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>45145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>45147</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>45162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45162</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>45162</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>45166</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>45166</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45168</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45168</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45169</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
       </c>
       <c r="R338" s="2" t="inlineStr"/>
     </row>
-    <row r="339">
+    <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
           <t>A 41205-2023</t>
@@ -21452,7 +21452,7 @@
         <v>45174</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21498,6 +21498,68 @@
         <v>0</v>
       </c>
       <c r="R339" s="2" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>A 46997-2023</t>
+        </is>
+      </c>
+      <c r="B340" s="1" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C340" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>ÖREBRO LÄN</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>HÄLLEFORS</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G340" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N340" t="n">
+        <v>0</v>
+      </c>
+      <c r="O340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R340" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43502</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43605</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43745</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44146</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43780</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44818</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44882</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>44957</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45082</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43396</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43398</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43403</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43426</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43461</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43485</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43580</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43587</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43600</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43636</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43649</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43665</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43665</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43678</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43686</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43689</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43693</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43696</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>43706</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43712</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43721</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43721</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43726</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43726</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43732</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43745</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43745</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43745</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43746</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43767</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43767</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43769</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43818</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43832</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43859</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43865</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43882</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43892</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43892</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43895</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43921</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43927</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43930</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43930</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43949</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43951</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43958</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43962</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43977</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43991</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43991</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43998</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44032</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44047</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44064</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44064</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44064</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44064</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>44064</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44064</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44064</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44064</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44067</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>44067</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>44069</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>44070</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>44074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44077</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44083</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44085</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44089</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>44098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44102</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>44102</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>44106</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>44106</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44106</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>44106</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44108</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44110</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44145</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44146</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44146</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>44147</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44153</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44160</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44161</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>44174</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>44174</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>44181</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44221</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>44238</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>44256</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>44260</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44260</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44260</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44264</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44266</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44271</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44273</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44308</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44314</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44314</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44314</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44314</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>44314</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44323</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44348</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44348</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>44351</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44383</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44386</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44393</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>44411</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44442</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44442</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44462</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44477</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44487</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>44515</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44523</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>44525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44543</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44610</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>44613</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44613</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44616</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44616</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44645</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44662</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44686</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44692</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>44721</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44722</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44722</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44749</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44750</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>44754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44754</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44754</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>44760</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44782</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44782</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44782</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44792</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44792</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44795</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44798</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44806</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44811</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44811</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44812</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44817</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44819</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44823</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44823</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44825</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44830</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44839</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>44858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44861</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>44861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44867</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         <v>44871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44874</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44876</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44876</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44886</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44887</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44894</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44896</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44907</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44909</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44930</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44942</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44959</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44965</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44979</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44979</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44981</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44981</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44981</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44981</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44981</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44981</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44987</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>45005</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>45009</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>45009</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>45019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>45019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>45019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>45022</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>45027</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>45027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>45037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>45037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>45037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>45044</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>45048</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>45051</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>45055</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>45057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>45057</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>45057</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>45058</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>45058</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45068</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45071</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>45082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45089</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45091</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>45145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>45145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>45147</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>45162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45162</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>45162</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>45166</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>45166</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45168</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45168</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45169</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>45174</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>45201</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43502</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43605</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43745</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44146</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43780</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44818</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44882</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>44957</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45082</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43396</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43398</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43403</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43426</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43461</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43485</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43580</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43587</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43600</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43636</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43649</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43665</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43665</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43678</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43686</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43689</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43693</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43696</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>43706</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43712</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43721</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43721</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43726</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43726</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43732</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43745</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43745</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43745</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43746</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43767</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43767</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43769</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43818</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43832</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43859</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43865</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43882</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43892</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43892</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43895</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43921</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43927</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43930</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43930</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43949</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43951</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43958</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43962</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43977</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43991</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43991</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43998</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44032</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44047</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44064</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44064</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44064</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44064</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>44064</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44064</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44064</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44064</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44067</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>44067</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>44069</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>44070</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>44074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44077</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44083</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44085</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44089</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>44098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44102</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>44102</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>44106</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>44106</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44106</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>44106</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44108</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44110</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44145</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44146</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44146</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>44147</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44153</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44160</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44161</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>44174</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>44174</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>44181</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44221</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>44238</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>44256</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>44260</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44260</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44260</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44264</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44266</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44271</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44273</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44308</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44314</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44314</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44314</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44314</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>44314</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44323</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44348</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44348</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>44351</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44383</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44386</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44393</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>44411</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44442</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44442</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44462</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44477</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44487</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>44515</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44523</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>44525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44543</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44610</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>44613</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44613</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44616</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44616</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44645</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44662</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44686</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44692</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>44721</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44722</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44722</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44749</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44750</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>44754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44754</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44754</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>44760</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44782</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44782</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44782</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44792</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44792</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44795</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44798</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44806</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44811</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44811</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44812</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44817</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44819</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44823</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44823</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44825</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44830</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44839</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>44858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44861</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>44861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44867</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         <v>44871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44874</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44876</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44876</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44886</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44887</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44894</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44896</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44907</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44909</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44930</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44942</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44959</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44965</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44979</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44979</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44981</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44981</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44981</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44981</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44981</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44981</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44987</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>45005</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>45009</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>45009</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>45019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>45019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>45019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>45022</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>45027</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>45027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>45037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>45037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>45037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>45044</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>45048</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>45051</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>45055</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>45057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>45057</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>45057</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>45058</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>45058</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45068</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45071</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>45082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45089</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45091</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>45145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>45145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>45147</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>45162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45162</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>45162</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>45166</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>45166</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45168</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45168</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45169</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>45174</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>45201</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>

--- a/Översikt HÄLLEFORS.xlsx
+++ b/Översikt HÄLLEFORS.xlsx
@@ -572,7 +572,7 @@
         <v>43502</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         <v>43502</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>43605</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43487</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>43699</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43745</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44146</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         <v>44594</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         <v>43780</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>43958</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>44463</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44741</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>44818</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         <v>44882</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>44909</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         <v>44957</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
         <v>45082</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>43368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>43377</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>43377</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         <v>43377</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>43396</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>43398</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>43403</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>43406</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         <v>43426</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>43426</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>43431</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>43439</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>43445</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         <v>43445</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>43445</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>43461</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>43467</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43473</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>43485</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>43486</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         <v>43493</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>43552</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>43580</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>43587</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>43600</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         <v>43636</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>43649</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3795,7 +3795,7 @@
         <v>43665</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>43665</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3909,7 +3909,7 @@
         <v>43665</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
         <v>43678</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
         <v>43686</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>43689</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
         <v>43693</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         <v>43696</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>43706</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         <v>43712</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
         <v>43721</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43721</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         <v>43726</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4566,7 +4566,7 @@
         <v>43726</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43732</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43745</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>43745</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>43745</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4876,7 +4876,7 @@
         <v>43746</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>43747</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4995,7 +4995,7 @@
         <v>43747</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>43747</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>43748</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43748</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
         <v>43752</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>43754</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43755</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43756</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5491,7 +5491,7 @@
         <v>43756</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43767</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>43767</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>43769</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43770</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         <v>43802</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>43804</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>43818</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>43832</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         <v>43859</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>43865</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43882</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>43892</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6334,7 +6334,7 @@
         <v>43892</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>43895</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>43921</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43927</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43930</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43930</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43949</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6830,7 +6830,7 @@
         <v>43951</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>43957</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>43958</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>43962</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>43977</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>43991</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7187,7 +7187,7 @@
         <v>43991</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7244,7 +7244,7 @@
         <v>43998</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44018</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>44032</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7430,7 +7430,7 @@
         <v>44047</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7487,7 +7487,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44064</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44064</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44064</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44064</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>44064</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>44064</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>44064</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7983,7 +7983,7 @@
         <v>44064</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44064</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44067</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44067</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8231,7 +8231,7 @@
         <v>44067</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>44069</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         <v>44070</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
         <v>44074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8474,7 +8474,7 @@
         <v>44077</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8536,7 +8536,7 @@
         <v>44083</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8593,7 +8593,7 @@
         <v>44085</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>44089</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>44098</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44098</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44098</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>44098</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>44102</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9027,7 +9027,7 @@
         <v>44102</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>44106</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         <v>44106</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9213,7 +9213,7 @@
         <v>44106</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
         <v>44106</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44108</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44110</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44145</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44146</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44146</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>44147</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44147</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44153</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44160</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
         <v>44160</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44161</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44161</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>44174</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>44174</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>44175</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10262,7 +10262,7 @@
         <v>44181</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>44200</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44221</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>44238</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10505,7 +10505,7 @@
         <v>44256</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>44260</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>44260</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
         <v>44260</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>44264</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>44266</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>44267</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>44271</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44273</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44308</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44314</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11162,7 +11162,7 @@
         <v>44314</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44314</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44314</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>44314</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>44323</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>44348</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>44348</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>44350</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         <v>44351</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44357</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>44383</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>44386</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11901,7 +11901,7 @@
         <v>44393</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11963,7 +11963,7 @@
         <v>44411</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12020,7 +12020,7 @@
         <v>44442</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12082,7 +12082,7 @@
         <v>44442</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12144,7 +12144,7 @@
         <v>44453</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12201,7 +12201,7 @@
         <v>44460</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12258,7 +12258,7 @@
         <v>44462</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44477</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44487</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12439,7 +12439,7 @@
         <v>44491</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12496,7 +12496,7 @@
         <v>44515</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>44523</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>44525</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12667,7 +12667,7 @@
         <v>44543</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44543</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44543</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44552</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44593</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44610</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>44613</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>44613</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44616</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44616</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44616</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>44616</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44616</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>44616</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>44645</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>44657</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44662</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>44686</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         <v>44692</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>44699</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>44719</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13981,7 +13981,7 @@
         <v>44721</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>44722</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>44722</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14167,7 +14167,7 @@
         <v>44748</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14224,7 +14224,7 @@
         <v>44749</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14281,7 +14281,7 @@
         <v>44750</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44750</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>44754</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14467,7 +14467,7 @@
         <v>44754</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>44754</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>44754</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>44754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14715,7 +14715,7 @@
         <v>44754</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>44754</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14839,7 +14839,7 @@
         <v>44756</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14901,7 +14901,7 @@
         <v>44760</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14958,7 +14958,7 @@
         <v>44762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15015,7 +15015,7 @@
         <v>44782</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>44782</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>44782</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>44791</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>44792</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15310,7 +15310,7 @@
         <v>44792</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44795</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44798</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44806</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44811</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15610,7 +15610,7 @@
         <v>44811</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15667,7 +15667,7 @@
         <v>44812</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44817</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44819</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44823</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44823</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44825</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44830</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44839</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>44839</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16210,7 +16210,7 @@
         <v>44841</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16272,7 +16272,7 @@
         <v>44841</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>44852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>44858</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44861</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>44861</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>44862</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16644,7 +16644,7 @@
         <v>44867</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         <v>44871</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16763,7 +16763,7 @@
         <v>44872</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>44873</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>44873</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>44873</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>44874</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17073,7 +17073,7 @@
         <v>44874</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44876</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44876</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44886</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>44887</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44894</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>44896</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44907</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44909</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44923</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44928</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44930</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44942</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44958</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44959</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44965</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>44979</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44979</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44981</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18273,7 +18273,7 @@
         <v>44981</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44981</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>44981</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>44981</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>44981</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44986</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18645,7 +18645,7 @@
         <v>44987</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18702,7 +18702,7 @@
         <v>45000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45000</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18826,7 +18826,7 @@
         <v>45000</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18888,7 +18888,7 @@
         <v>45000</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18950,7 +18950,7 @@
         <v>45000</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19012,7 +19012,7 @@
         <v>45005</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>45009</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         <v>45009</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19198,7 +19198,7 @@
         <v>45019</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>45019</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>45019</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>45022</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>45027</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>45027</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>45037</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>45037</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>45037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>45044</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>45048</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>45051</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19994,7 +19994,7 @@
         <v>45055</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20056,7 +20056,7 @@
         <v>45057</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>45057</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>45057</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20242,7 +20242,7 @@
         <v>45058</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>45058</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45068</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45071</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45082</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20542,7 +20542,7 @@
         <v>45082</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45083</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45089</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45091</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>45145</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>45145</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20904,7 +20904,7 @@
         <v>45147</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>45162</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21023,7 +21023,7 @@
         <v>45162</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21085,7 +21085,7 @@
         <v>45162</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21147,7 +21147,7 @@
         <v>45166</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>45166</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45168</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45168</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>45169</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>45174</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>45201</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
